--- a/Mini_Assignment_4&5/sample.xlsx
+++ b/Mini_Assignment_4&5/sample.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\manjpr\IdeaProjects\Mini_Assignment_4&amp;5\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\manjpr\IdeaProjects\HU_SELENIUM_TRACK\Mini_Assignment_4&amp;5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{092C5625-1F1B-4A48-9D01-C5A979831248}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3A7A64E-5308-409B-900F-C718654CA272}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
   <si>
     <t>Username</t>
   </si>
@@ -43,9 +43,6 @@
     <t>problem_user</t>
   </si>
   <si>
-    <t>abcd</t>
-  </si>
-  <si>
     <t>efgh</t>
   </si>
   <si>
@@ -53,6 +50,18 @@
   </si>
   <si>
     <t>performance_glitch_user</t>
+  </si>
+  <si>
+    <t>FirstName</t>
+  </si>
+  <si>
+    <t>Lastname</t>
+  </si>
+  <si>
+    <t>Zipcode</t>
+  </si>
+  <si>
+    <t>Abcd</t>
   </si>
 </sst>
 </file>
@@ -372,7 +381,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
@@ -400,7 +409,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
@@ -416,7 +425,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B5" t="s">
         <v>3</v>
@@ -430,26 +439,37 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1F82774-0033-429A-8F6B-16C8ADA354A8}">
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="12.1796875" customWidth="1"/>
+    <col min="2" max="2" width="12.7265625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A3">
+      <c r="C2">
         <v>123456</v>
       </c>
     </row>
